--- a/inst/extdata/socio_economic/example_2/ex2_se.xlsx
+++ b/inst/extdata/socio_economic/example_2/ex2_se.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\CEMPRA\inst\extdata\socio_economic\example_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30A8EF-4667-424D-A35D-CE5B6642FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92F4E7-31C3-4777-A8A1-E35B0846C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="1" activeTab="2" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
+    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="2" activeTab="10" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="17" r:id="rId1"/>
@@ -2016,6 +2016,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2067,12 +2073,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,16 +2167,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,16 +2313,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,16 +3527,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,16 +3697,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,16 +5421,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5482,16 +5482,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10286,16 +10286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10415,16 +10415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10927,7 +10927,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -11000,8 +11000,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11058,10 +11058,10 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>-2</v>
+      </c>
+      <c r="E3">
         <v>-0.25</v>
-      </c>
-      <c r="E3">
-        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11076,10 +11076,10 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
         <v>-0.25</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -11094,10 +11094,10 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
         <v>-0.25</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11111,10 +11111,10 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
         <v>-0.25</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11128,10 +11128,10 @@
         <v>4</v>
       </c>
       <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
         <v>-0.25</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11145,10 +11145,10 @@
         <v>4</v>
       </c>
       <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
         <v>-0.25</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -11162,10 +11162,10 @@
         <v>4</v>
       </c>
       <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
         <v>-0.25</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11179,10 +11179,10 @@
         <v>4</v>
       </c>
       <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
         <v>-0.25</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -11196,10 +11196,10 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <v>-5</v>
+      </c>
+      <c r="E11">
         <v>-0.25</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -11213,10 +11213,10 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <v>-5</v>
+      </c>
+      <c r="E12">
         <v>-0.25</v>
-      </c>
-      <c r="E12">
-        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -11230,10 +11230,10 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13">
         <v>-0.25</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11247,10 +11247,10 @@
         <v>4</v>
       </c>
       <c r="D14">
+        <v>-5</v>
+      </c>
+      <c r="E14">
         <v>-0.25</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -11264,10 +11264,10 @@
         <v>4</v>
       </c>
       <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
         <v>-0.25</v>
-      </c>
-      <c r="E15">
-        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11281,10 +11281,10 @@
         <v>4</v>
       </c>
       <c r="D16">
+        <v>-5</v>
+      </c>
+      <c r="E16">
         <v>-0.25</v>
-      </c>
-      <c r="E16">
-        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -11298,10 +11298,10 @@
         <v>4</v>
       </c>
       <c r="D17">
+        <v>-5</v>
+      </c>
+      <c r="E17">
         <v>-0.25</v>
-      </c>
-      <c r="E17">
-        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -11315,10 +11315,10 @@
         <v>4</v>
       </c>
       <c r="D18">
+        <v>-5</v>
+      </c>
+      <c r="E18">
         <v>-0.25</v>
-      </c>
-      <c r="E18">
-        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -11332,10 +11332,10 @@
         <v>4</v>
       </c>
       <c r="D19">
+        <v>-5</v>
+      </c>
+      <c r="E19">
         <v>-0.25</v>
-      </c>
-      <c r="E19">
-        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -11349,10 +11349,10 @@
         <v>4</v>
       </c>
       <c r="D20">
+        <v>-5</v>
+      </c>
+      <c r="E20">
         <v>-0.25</v>
-      </c>
-      <c r="E20">
-        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -11366,10 +11366,10 @@
         <v>4</v>
       </c>
       <c r="D21">
+        <v>-5</v>
+      </c>
+      <c r="E21">
         <v>-0.25</v>
-      </c>
-      <c r="E21">
-        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -11383,10 +11383,10 @@
         <v>4</v>
       </c>
       <c r="D22">
+        <v>-5</v>
+      </c>
+      <c r="E22">
         <v>-0.25</v>
-      </c>
-      <c r="E22">
-        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -11551,22 +11551,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -11858,7 +11858,7 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -11875,22 +11875,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="71"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -12059,10 +12059,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="str">
@@ -12321,18 +12321,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61"/>
@@ -12491,14 +12491,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12680,7 +12680,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12734,10 +12734,10 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>-2</v>
+      </c>
+      <c r="E3">
         <v>-0.25</v>
-      </c>
-      <c r="E3">
-        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -12752,10 +12752,10 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
         <v>-0.25</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -12770,10 +12770,10 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
         <v>-0.25</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -12787,10 +12787,10 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
         <v>-0.25</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -12804,10 +12804,10 @@
         <v>4</v>
       </c>
       <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
         <v>-0.25</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -12821,10 +12821,10 @@
         <v>4</v>
       </c>
       <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
         <v>-0.25</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -12838,10 +12838,10 @@
         <v>4</v>
       </c>
       <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
         <v>-0.25</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -12855,10 +12855,10 @@
         <v>4</v>
       </c>
       <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
         <v>-0.25</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -12872,10 +12872,10 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <v>-5</v>
+      </c>
+      <c r="E11">
         <v>-0.25</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -12889,10 +12889,10 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <v>-5</v>
+      </c>
+      <c r="E12">
         <v>-0.25</v>
-      </c>
-      <c r="E12">
-        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -12906,10 +12906,10 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13">
         <v>-0.25</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -12923,10 +12923,10 @@
         <v>4</v>
       </c>
       <c r="D14">
+        <v>-5</v>
+      </c>
+      <c r="E14">
         <v>-0.25</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -12940,10 +12940,10 @@
         <v>4</v>
       </c>
       <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
         <v>-0.25</v>
-      </c>
-      <c r="E15">
-        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -12957,10 +12957,10 @@
         <v>4</v>
       </c>
       <c r="D16">
+        <v>-5</v>
+      </c>
+      <c r="E16">
         <v>-0.25</v>
-      </c>
-      <c r="E16">
-        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -12974,10 +12974,10 @@
         <v>4</v>
       </c>
       <c r="D17">
+        <v>-5</v>
+      </c>
+      <c r="E17">
         <v>-0.25</v>
-      </c>
-      <c r="E17">
-        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -12991,10 +12991,10 @@
         <v>4</v>
       </c>
       <c r="D18">
+        <v>-5</v>
+      </c>
+      <c r="E18">
         <v>-0.25</v>
-      </c>
-      <c r="E18">
-        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -13008,10 +13008,10 @@
         <v>4</v>
       </c>
       <c r="D19">
+        <v>-5</v>
+      </c>
+      <c r="E19">
         <v>-0.25</v>
-      </c>
-      <c r="E19">
-        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -13025,10 +13025,10 @@
         <v>4</v>
       </c>
       <c r="D20">
+        <v>-5</v>
+      </c>
+      <c r="E20">
         <v>-0.25</v>
-      </c>
-      <c r="E20">
-        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -13042,10 +13042,10 @@
         <v>4</v>
       </c>
       <c r="D21">
+        <v>-5</v>
+      </c>
+      <c r="E21">
         <v>-0.25</v>
-      </c>
-      <c r="E21">
-        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13059,10 +13059,10 @@
         <v>4</v>
       </c>
       <c r="D22">
+        <v>-5</v>
+      </c>
+      <c r="E22">
         <v>-0.25</v>
-      </c>
-      <c r="E22">
-        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -13206,7 +13206,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13260,10 +13260,10 @@
         <v>0.5</v>
       </c>
       <c r="D3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13277,10 +13277,10 @@
         <v>0.5</v>
       </c>
       <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13294,10 +13294,10 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
         <v>-0.5</v>
-      </c>
-      <c r="E5">
-        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13311,10 +13311,10 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
         <v>-0.5</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -13449,15 +13449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006256975931115C42B154129ACF64F69B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8760ac783ae80450fdcfd00892bf61e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8739a20a3ebaa886781928d73ec2eaf7" ns3:_="">
     <xsd:import namespace="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03"/>
@@ -13601,6 +13592,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13608,14 +13608,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B5C721-92D3-4BD7-B3B7-E31C54E2EC22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13629,6 +13621,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
